--- a/1712878/LIBRARY/FILE/PhieuMuon.xlsx
+++ b/1712878/LIBRARY/FILE/PhieuMuon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\GitHub\OOP_LT_LIRBRARY\1712878\FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\GitHub\OOP_LT_LIRBRARY\1712878\LIBRARY\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8035CEE-AD22-48EC-859A-9E1896872F5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB553A4-9357-4F26-ACDF-64F4BDC838C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9270" windowHeight="675" xr2:uid="{CB686686-7B06-4A76-B225-74E824C9D6A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>MA SACH</t>
   </si>
@@ -51,34 +51,100 @@
     <t xml:space="preserve">NGAY HET HAN </t>
   </si>
   <si>
-    <t>KHTN002</t>
-  </si>
-  <si>
-    <t>KHTN003</t>
-  </si>
-  <si>
-    <t>KHTN008</t>
-  </si>
-  <si>
-    <t>KHTN004</t>
-  </si>
-  <si>
-    <t>KHTN001</t>
-  </si>
-  <si>
-    <t>KHTN005</t>
-  </si>
-  <si>
-    <t>KHTN006</t>
-  </si>
-  <si>
-    <t>KHTN007</t>
-  </si>
-  <si>
-    <t>KHTN009</t>
-  </si>
-  <si>
-    <t>KHTN010</t>
+    <t>OOP006</t>
+  </si>
+  <si>
+    <t>OOP007</t>
+  </si>
+  <si>
+    <t>OOP008</t>
+  </si>
+  <si>
+    <t>OOP009</t>
+  </si>
+  <si>
+    <t>OOP010</t>
+  </si>
+  <si>
+    <t>OOP011</t>
+  </si>
+  <si>
+    <t>OOP012</t>
+  </si>
+  <si>
+    <t>OOP013</t>
+  </si>
+  <si>
+    <t>OOP014</t>
+  </si>
+  <si>
+    <t>OOP015</t>
+  </si>
+  <si>
+    <t>OOP016</t>
+  </si>
+  <si>
+    <t>OOP017</t>
+  </si>
+  <si>
+    <t>OOP018</t>
+  </si>
+  <si>
+    <t>OOP019</t>
+  </si>
+  <si>
+    <t>OOP020</t>
+  </si>
+  <si>
+    <t>OOP021</t>
+  </si>
+  <si>
+    <t>OOP022</t>
+  </si>
+  <si>
+    <t>OOP023</t>
+  </si>
+  <si>
+    <t>OOP024</t>
+  </si>
+  <si>
+    <t>OOP025</t>
+  </si>
+  <si>
+    <t>OOP026</t>
+  </si>
+  <si>
+    <t>OOP027</t>
+  </si>
+  <si>
+    <t>OOP001</t>
+  </si>
+  <si>
+    <t>OOP002</t>
+  </si>
+  <si>
+    <t>OOP003</t>
+  </si>
+  <si>
+    <t>OOP004</t>
+  </si>
+  <si>
+    <t>OOP005</t>
+  </si>
+  <si>
+    <t>OOP028</t>
+  </si>
+  <si>
+    <t>OOP029</t>
+  </si>
+  <si>
+    <t>OOP030</t>
+  </si>
+  <si>
+    <t>OOP031</t>
+  </si>
+  <si>
+    <t>OOP032</t>
   </si>
 </sst>
 </file>
@@ -436,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95F53E5-4296-48D8-8873-BAFAFD569100}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="A1:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,50 +539,53 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>268616154</v>
+        <v>274299112</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="D2" s="1">
-        <v>43473</v>
+        <f>C2+7</f>
+        <v>43108</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>156907345</v>
+        <v>268616154</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="D3" s="1">
-        <v>43474</v>
+        <f>C3+7</f>
+        <v>43473</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>165024578</v>
+        <v>228568444</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="D4" s="1">
-        <v>43474</v>
+        <f>C4+7</f>
+        <v>43473</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -524,33 +593,35 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>223929938</v>
+        <v>216920917</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="D5" s="1">
-        <v>43474</v>
+        <f>C5+7</f>
+        <v>43473</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>190852217</v>
+        <v>275771181</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>43468</v>
+        <v>43466</v>
       </c>
       <c r="D6" s="1">
-        <v>43475</v>
+        <f>C6+7</f>
+        <v>43473</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -558,33 +629,35 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>212029163</v>
+        <v>285206094</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>43468</v>
+        <v>43466</v>
       </c>
       <c r="D7" s="1">
-        <v>43475</v>
+        <f>C7+7</f>
+        <v>43473</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>260493543</v>
+        <v>156907345</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>43468</v>
+        <v>43467</v>
       </c>
       <c r="D8" s="1">
-        <v>43475</v>
+        <f>C8+7</f>
+        <v>43474</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -592,16 +665,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>207232731</v>
+        <v>165024578</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>43469</v>
+        <v>43467</v>
       </c>
       <c r="D9" s="1">
-        <v>43476</v>
+        <f>C9+7</f>
+        <v>43474</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -609,18 +683,17 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>285206094</v>
+        <v>223929938</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f ca="1">RANDBETWEEN(DATE(2019,1,1),DATE(2019,1,10))</f>
-        <v>43468</v>
+        <v>43467</v>
       </c>
       <c r="D10" s="1">
-        <f ca="1">C10+7</f>
-        <v>43475</v>
+        <f>C10+7</f>
+        <v>43474</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -628,16 +701,17 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>202321979</v>
+        <v>214587489</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>43471</v>
+        <v>43467</v>
       </c>
       <c r="D11" s="1">
-        <v>43478</v>
+        <f>C11+7</f>
+        <v>43474</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -645,16 +719,17 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>188185163</v>
+        <v>284953322</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>43472</v>
+        <v>43467</v>
       </c>
       <c r="D12" s="1">
-        <v>43479</v>
+        <f>C12+7</f>
+        <v>43474</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -662,16 +737,17 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>232958486</v>
+        <v>287918095</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>43472</v>
+        <v>43467</v>
       </c>
       <c r="D13" s="1">
-        <v>43479</v>
+        <f>C13+7</f>
+        <v>43474</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -679,50 +755,53 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>234517495</v>
+        <v>190852217</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
-        <v>43472</v>
+        <v>43467</v>
       </c>
       <c r="D14" s="1">
-        <v>43479</v>
+        <f>C14+7</f>
+        <v>43474</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>284953322</v>
+        <v>202321979</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
-        <v>43472</v>
+        <v>43467</v>
       </c>
       <c r="D15" s="1">
-        <v>43479</v>
+        <f>C15+7</f>
+        <v>43474</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>210366942</v>
+        <v>270869768</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="D16" s="1">
-        <v>43480</v>
+        <f>C16+7</f>
+        <v>43474</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -730,16 +809,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>214587489</v>
+        <v>285206094</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>43473</v>
+        <v>43468</v>
       </c>
       <c r="D17" s="1">
-        <v>43480</v>
+        <f>C17+7</f>
+        <v>43475</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -747,50 +827,53 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>259937103</v>
+        <v>190852217</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>43473</v>
+        <v>43468</v>
       </c>
       <c r="D18" s="1">
-        <v>43480</v>
+        <f>C18+7</f>
+        <v>43475</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>226793287</v>
+        <v>212029163</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>43474</v>
+        <v>43468</v>
       </c>
       <c r="D19" s="1">
-        <v>43481</v>
+        <f>C19+7</f>
+        <v>43475</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>245403375</v>
+        <v>260493543</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20+7</f>
         <v>43475</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43482</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -798,57 +881,392 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>270869768</v>
+        <v>259937103</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D21" s="1">
+        <f>C21+7</f>
         <v>43475</v>
       </c>
-      <c r="D21" s="1">
-        <v>43482</v>
-      </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>274299112</v>
+        <v>245403375</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D22" s="1">
+        <f>C22+7</f>
         <v>43475</v>
       </c>
-      <c r="D22" s="1">
-        <v>43482</v>
-      </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>223929938</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D23" s="1">
+        <f>C23+7</f>
+        <v>43475</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>165024578</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D24" s="1">
+        <f>C24+7</f>
+        <v>43475</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>226851874</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D25" s="1">
+        <f>C25+7</f>
+        <v>43475</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>234517495</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D26" s="1">
+        <f>C26+7</f>
+        <v>43475</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>232958486</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D27" s="1">
+        <f>C27+7</f>
+        <v>43475</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>207232731</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43469</v>
+      </c>
+      <c r="D28" s="1">
+        <f>C28+7</f>
+        <v>43476</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>234517495</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43469</v>
+      </c>
+      <c r="D29" s="1">
+        <f>C29+7</f>
+        <v>43476</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>270869768</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43469</v>
+      </c>
+      <c r="D30" s="1">
+        <f>C30+7</f>
+        <v>43476</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>166952111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43469</v>
+      </c>
+      <c r="D31" s="1">
+        <f>C31+7</f>
+        <v>43476</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>284953322</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43470</v>
+      </c>
+      <c r="D32" s="1">
+        <f>C32+7</f>
+        <v>43477</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>275771181</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43470</v>
+      </c>
+      <c r="D33" s="1">
+        <f>C33+7</f>
+        <v>43477</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>202321979</v>
+      </c>
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1">
-        <v>43475</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43482</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
+      <c r="C34" s="1">
+        <v>43471</v>
+      </c>
+      <c r="D34" s="1">
+        <f>C34+7</f>
+        <v>43478</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>210366942</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43471</v>
+      </c>
+      <c r="D35" s="1">
+        <f>C35+7</f>
+        <v>43478</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>207232731</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43471</v>
+      </c>
+      <c r="D36" s="1">
+        <f>C36+7</f>
+        <v>43478</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>188185163</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43472</v>
+      </c>
+      <c r="D37" s="1">
+        <f>C37+7</f>
+        <v>43479</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>232958486</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43472</v>
+      </c>
+      <c r="D38" s="1">
+        <f>C38+7</f>
+        <v>43479</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>156907345</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43472</v>
+      </c>
+      <c r="D39" s="1">
+        <f>C39+7</f>
+        <v>43479</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>212029163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43473</v>
+      </c>
+      <c r="D40" s="1">
+        <f>C40+7</f>
+        <v>43480</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>226793287</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43474</v>
+      </c>
+      <c r="D41" s="1">
+        <f>C41+7</f>
+        <v>43481</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
